--- a/Documentacion_Proyecto/Desarrollo Movil - Historias de usuario.xlsx
+++ b/Documentacion_Proyecto/Desarrollo Movil - Historias de usuario.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\600ESAN\9SEMESTRE\DAM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C0F39-6F4F-4790-9048-AF6CC3079456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Detalles de Usuario" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Historias de Usuario" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Product Backlog1" sheetId="3" r:id="rId6"/>
+    <sheet name="Detalles de Usuario" sheetId="1" r:id="rId1"/>
+    <sheet name="Historias de Usuario" sheetId="2" r:id="rId2"/>
+    <sheet name="Product Backlog1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="108">
   <si>
     <t xml:space="preserve">N° </t>
   </si>
@@ -117,12 +126,6 @@
     <t>Como Empresa turística deseo registrarme con la finalidad de llegar a más clientes con la aplicación</t>
   </si>
   <si>
-    <t>El cliente debe ingresar datos como ( Nombre completo, Email, Contraseña , Celular, fecha de nacimiento)</t>
-  </si>
-  <si>
-    <t>La empresa turística  debe ingresar datos como ( Nombre de la empresa, Email corporativo, Contraseña , Celular, Ruc</t>
-  </si>
-  <si>
     <t>El cliente debe de ingresar 2 veces su Email</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
     <t>El cliente debe debe ingresar una contraseña  que no tenga que ver con sus datos personales</t>
   </si>
   <si>
-    <t xml:space="preserve">La empresa debe debe ingresar una contraseña  que no tenga que ver con sus datos </t>
-  </si>
-  <si>
     <t>El sistema al terminar con el registro debe enviar una confirmación al correo</t>
   </si>
   <si>
@@ -334,45 +334,69 @@
   </si>
   <si>
     <t>Baja</t>
+  </si>
+  <si>
+    <t>20100172- Christopher</t>
+  </si>
+  <si>
+    <t>El cliente debe ingresar datos como Nombre completo, Email, Contraseña, Celular, Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa debe debe ingresar una contraseña que no tenga que ver con sus datos </t>
+  </si>
+  <si>
+    <t>La empresa turística debe ingresar datos como Nombre de la empresa, Email corporativo, Contraseña, Celular, Ruc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,7 +405,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -391,7 +415,13 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -405,8 +435,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -416,6 +448,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -424,136 +457,135 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -743,26 +775,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C2:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="G61" sqref="G53:H61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="29.13"/>
-    <col customWidth="1" min="4" max="4" width="47.5"/>
-    <col customWidth="1" min="7" max="7" width="29.13"/>
-    <col customWidth="1" min="8" max="8" width="45.13"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28.5" customHeight="1">
+    <row r="3" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -804,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -818,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
@@ -832,7 +869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="73.5" customHeight="1">
+    <row r="7" spans="3:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
@@ -846,81 +883,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="8" t="s">
+      <c r="D8" s="19"/>
+      <c r="G8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="10" t="s">
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="17"/>
+      <c r="G9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="C10" s="10" t="s">
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="G10" s="10" t="s">
+      <c r="D10" s="17"/>
+      <c r="G10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="C11" s="10" t="s">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="G11" s="10" t="s">
+      <c r="D11" s="17"/>
+      <c r="G11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="10" t="s">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="G12" s="10" t="s">
+      <c r="D12" s="17"/>
+      <c r="G12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="19">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="19" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -934,7 +971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,7 +985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
@@ -962,7 +999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
@@ -976,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
@@ -987,10 +1024,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1004,95 +1041,95 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="G25" s="8" t="s">
+      <c r="D25" s="19"/>
+      <c r="G25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="10" t="s">
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="G26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="G26" s="10" t="s">
+      <c r="D27" s="17"/>
+      <c r="G27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="10" t="s">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="G27" s="10" t="s">
+      <c r="D28" s="24"/>
+      <c r="G28" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="10" t="s">
+      <c r="D29" s="17"/>
+      <c r="G29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="G28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="G29" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="12"/>
-      <c r="D31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="12"/>
-      <c r="D32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="36">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="36" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,21 +1143,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
@@ -1145,110 +1182,110 @@
         <v>11</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="51" x14ac:dyDescent="0.2">
       <c r="C41" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="G42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C43" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="G43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="C42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="G42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="C43" s="10" t="s">
+      <c r="D44" s="17"/>
+      <c r="G44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="G43" s="10" t="s">
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C45" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44">
-      <c r="C44" s="13" t="s">
+      <c r="D45" s="17"/>
+      <c r="G45" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="G44" s="10" t="s">
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45">
-      <c r="C45" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="G45" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47">
-      <c r="C47" s="12"/>
-      <c r="D47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48">
-      <c r="C48" s="12"/>
-      <c r="D48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49">
-      <c r="C49" s="12"/>
-      <c r="D49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50">
-      <c r="C50" s="12"/>
-      <c r="D50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="53">
+      <c r="D46" s="17"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="53" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,21 +1299,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
@@ -1287,10 +1324,10 @@
         <v>9</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
@@ -1304,91 +1341,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="3:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C59" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="G59" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C60" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="G60" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="C59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="G59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60">
-      <c r="C60" s="13" t="s">
+      <c r="D61" s="17"/>
+      <c r="G61" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="G60" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61">
-      <c r="C61" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="G61" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62">
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63">
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64">
-      <c r="C64" s="12"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65">
-      <c r="C65" s="12"/>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66">
-      <c r="C66" s="12"/>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67">
-      <c r="C67" s="12"/>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="70">
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C62" s="20"/>
+      <c r="D62" s="17"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C63" s="20"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C67" s="16"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="70" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C71" s="3" t="s">
         <v>3</v>
       </c>
@@ -1402,26 +1439,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>9</v>
@@ -1430,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="3:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C74" s="3" t="s">
         <v>11</v>
       </c>
@@ -1444,83 +1481,83 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="3:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="G76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="19"/>
+    </row>
+    <row r="77" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="G77" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="C76" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="G76" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77">
-      <c r="C77" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="G77" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78">
-      <c r="C78" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79">
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80">
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
-    </row>
-    <row r="81">
-      <c r="C81" s="12"/>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82">
-      <c r="C82" s="12"/>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83">
-      <c r="C83" s="12"/>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84">
-      <c r="C84" s="12"/>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="87">
+      <c r="D78" s="17"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C79" s="20"/>
+      <c r="D79" s="17"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C80" s="20"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="87" spans="3:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C88" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,109 +1565,129 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="3:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C89" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="C93" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="C93" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94">
-      <c r="C94" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95">
-      <c r="C95" s="13"/>
-      <c r="D95" s="11"/>
-    </row>
-    <row r="96">
-      <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97">
-      <c r="C97" s="10"/>
-      <c r="D97" s="11"/>
-    </row>
-    <row r="98">
-      <c r="C98" s="12"/>
-      <c r="D98" s="11"/>
-    </row>
-    <row r="99">
-      <c r="C99" s="12"/>
-      <c r="D99" s="11"/>
-    </row>
-    <row r="100">
-      <c r="C100" s="12"/>
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101">
-      <c r="C101" s="12"/>
-      <c r="D101" s="11"/>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="24"/>
+    </row>
+    <row r="95" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C95" s="21"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C96" s="20"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C97" s="20"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C100" s="16"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C101" s="16"/>
+      <c r="D101" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C100:D100"/>
@@ -1642,92 +1699,73 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.88"/>
-    <col customWidth="1" min="3" max="3" width="32.63"/>
-    <col customWidth="1" min="4" max="4" width="26.38"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="25.38"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1740,8 +1778,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1754,8 +1792,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1768,8 +1806,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1782,12 +1820,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="15" t="s">
-        <v>42</v>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>30</v>
@@ -1796,12 +1834,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="15" t="s">
-        <v>43</v>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>31</v>
@@ -1810,12 +1848,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="15" t="s">
-        <v>55</v>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -1824,54 +1862,54 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="15" t="s">
-        <v>66</v>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="15" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="15" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>30</v>
@@ -1881,179 +1919,180 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.88"/>
-    <col customWidth="1" min="3" max="3" width="7.0"/>
-    <col customWidth="1" min="4" max="4" width="53.0"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="3:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3">
-      <c r="C3" s="18" t="s">
+      <c r="F3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="G3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="18" t="s">
+    </row>
+    <row r="4" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="D6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="20" t="s">
+    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="D8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="20" t="s">
+    <row r="9" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22" t="s">
+      <c r="D9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="28.5" customHeight="1">
-      <c r="C8" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="20" t="s">
+    <row r="10" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:F2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentacion_Proyecto/Desarrollo Movil - Historias de usuario.xlsx
+++ b/Documentacion_Proyecto/Desarrollo Movil - Historias de usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\600ESAN\9SEMESTRE\DAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean Pierre\Desktop\MOVILES\Proyecto_Final\Documentacion_Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C0F39-6F4F-4790-9048-AF6CC3079456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251C7D2-9D7B-40B7-ADC5-20540C31068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalles de Usuario" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
   <si>
     <t xml:space="preserve">N° </t>
   </si>
@@ -195,15 +195,9 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Como cliente, deseo acceder a las mejores pasarelas de pago disponibles en el sistema, con el fin de realizar reservas de manera rápida, segura y sin inconvenientes.</t>
-  </si>
-  <si>
     <t>Como empresa turística, deseo tener acceso al historial completo de actividades de mis clientes en el sistema, con el fin de identificar a los clientes frecuentes y ofrecerles ofertas personalizadas y beneficios especiales</t>
   </si>
   <si>
-    <t>El sistema muestra opciones de pasarelas de pago reconocidas y confiables al momento de realizar una reserva</t>
-  </si>
-  <si>
     <t>El sistema proporciona un panel o sección específica para que la empresa turística acceda al historial de actividades de sus clientes</t>
   </si>
   <si>
@@ -346,6 +340,18 @@
   </si>
   <si>
     <t>La empresa turística debe ingresar datos como Nombre de la empresa, Email corporativo, Contraseña, Celular, Ruc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones de pagos </t>
+  </si>
+  <si>
+    <t>Como cliente, deseo tener diferentes formas de pago disponibles en el sistema, con el fin de realizar reservas de manera rápida, segura y sin inconvenientes.</t>
+  </si>
+  <si>
+    <t>El sistema muestra opciones de pago reconocidas y confiables al momento de realizar una reserva</t>
+  </si>
+  <si>
+    <t>Los clientes podran acceder a esta seccion desde Reservar Actividad</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -550,21 +556,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,19 +796,19 @@
   </sheetPr>
   <dimension ref="C2:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="G61" sqref="G53:H61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -841,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -855,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
@@ -883,81 +892,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="G8" s="18" t="s">
+      <c r="D8" s="20"/>
+      <c r="G8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="20" t="s">
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="17"/>
       <c r="G9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C10" s="20" t="s">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
+    <row r="11" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C13" s="16"/>
+    <row r="13" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
       <c r="D13" s="17"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C14" s="16"/>
+    <row r="14" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
       <c r="D14" s="17"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C15" s="16"/>
+    <row r="15" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
       <c r="D15" s="17"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C16" s="16"/>
+    <row r="16" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
       <c r="D16" s="17"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="19" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -971,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1024,10 +1033,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="38.25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1041,81 +1050,81 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="G25" s="18" t="s">
+      <c r="D25" s="20"/>
+      <c r="G25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="G26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="G26" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C27" s="20" t="s">
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="G28" s="20" t="s">
-        <v>106</v>
+      <c r="D28" s="22"/>
+      <c r="G28" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C29" s="20" t="s">
+    <row r="29" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C29" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="16" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C30" s="16"/>
+    <row r="30" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C30" s="18"/>
       <c r="D30" s="17"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C31" s="16"/>
+    <row r="31" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C31" s="18"/>
       <c r="D31" s="17"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="16"/>
+    <row r="32" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C32" s="18"/>
       <c r="D32" s="17"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C33" s="16"/>
+    <row r="33" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C33" s="18"/>
       <c r="D33" s="17"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="36" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
@@ -1182,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
         <v>14</v>
       </c>
@@ -1199,79 +1208,79 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+    <row r="42" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="G42" s="18" t="s">
+      <c r="D42" s="20"/>
+      <c r="G42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C43" s="20" t="s">
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="16" t="s">
         <v>48</v>
       </c>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C45" s="20" t="s">
+    <row r="45" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C46" s="20" t="s">
+    <row r="46" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C46" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="G46" s="20"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C47" s="16"/>
+    <row r="47" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C47" s="18"/>
       <c r="D47" s="17"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C48" s="16"/>
+    <row r="48" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C48" s="18"/>
       <c r="D48" s="17"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C49" s="16"/>
+    <row r="49" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C49" s="18"/>
       <c r="D49" s="17"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C50" s="16"/>
+    <row r="50" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C50" s="18"/>
       <c r="D50" s="17"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="53" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,12 +1308,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>6</v>
@@ -1313,7 +1322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
@@ -1341,91 +1350,93 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:8" ht="66" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C59" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="G59" s="18" t="s">
+      <c r="D59" s="20"/>
+      <c r="G59" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="3:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="21" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="D60" s="17"/>
       <c r="G60" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="21" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D61" s="17"/>
       <c r="G61" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C62" s="20"/>
+    <row r="62" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C62" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="D62" s="17"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="16"/>
       <c r="H62" s="17"/>
     </row>
-    <row r="63" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C63" s="20"/>
+    <row r="63" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C64" s="16"/>
+    <row r="64" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C64" s="18"/>
       <c r="D64" s="17"/>
     </row>
-    <row r="65" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C65" s="16"/>
+    <row r="65" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C65" s="18"/>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C66" s="16"/>
+    <row r="66" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C66" s="18"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C67" s="16"/>
+    <row r="67" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C67" s="18"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="70" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
         <v>3</v>
       </c>
@@ -1439,21 +1450,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
         <v>11</v>
       </c>
@@ -1481,83 +1492,83 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:8" ht="66" x14ac:dyDescent="0.25">
       <c r="C75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="20"/>
+      <c r="G76" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="G77" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C76" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="G76" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="21" t="s">
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="G77" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" s="17"/>
-    </row>
-    <row r="78" spans="3:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="17"/>
+      <c r="D78" s="25"/>
       <c r="G78" s="21"/>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C79" s="20"/>
-      <c r="D79" s="17"/>
-      <c r="G79" s="20"/>
+    <row r="79" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C79" s="21"/>
+      <c r="D79" s="25"/>
+      <c r="G79" s="16"/>
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C80" s="20"/>
+    <row r="80" spans="3:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C80" s="16"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C81" s="16"/>
+    <row r="81" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C81" s="18"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C82" s="16"/>
+    <row r="82" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C82" s="18"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C83" s="16"/>
+    <row r="83" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C83" s="18"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C84" s="16"/>
+    <row r="84" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C84" s="18"/>
       <c r="D84" s="17"/>
     </row>
-    <row r="87" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,15 +1576,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
@@ -1581,79 +1592,115 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" ht="63.75" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" ht="66" x14ac:dyDescent="0.25">
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="C93" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="19"/>
-    </row>
-    <row r="94" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D93" s="20"/>
+    </row>
+    <row r="94" spans="3:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" s="24"/>
-    </row>
-    <row r="95" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="D94" s="22"/>
+    </row>
+    <row r="95" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="21"/>
       <c r="D95" s="17"/>
     </row>
-    <row r="96" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C96" s="20"/>
+    <row r="96" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C96" s="16"/>
       <c r="D96" s="17"/>
     </row>
-    <row r="97" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C97" s="20"/>
+    <row r="97" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C97" s="16"/>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C98" s="16"/>
+    <row r="98" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C98" s="18"/>
       <c r="D98" s="17"/>
     </row>
-    <row r="99" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C99" s="16"/>
+    <row r="99" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C99" s="18"/>
       <c r="D99" s="17"/>
     </row>
-    <row r="100" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C100" s="16"/>
+    <row r="100" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C100" s="18"/>
       <c r="D100" s="17"/>
     </row>
-    <row r="101" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C101" s="16"/>
+    <row r="101" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C101" s="18"/>
       <c r="D101" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -1663,53 +1710,19 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="G62:H62"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="C48:D48"/>
@@ -1721,13 +1734,11 @@
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1740,31 +1751,31 @@
   </sheetPr>
   <dimension ref="B3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
@@ -1778,7 +1789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
@@ -1792,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
@@ -1834,7 +1845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
@@ -1862,12 +1873,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
@@ -1876,12 +1887,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>31</v>
@@ -1890,7 +1901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>53</v>
       </c>
@@ -1904,12 +1915,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>30</v>
@@ -1932,161 +1943,161 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C2" s="22" t="s">
+    <row r="2" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="3:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="3:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="10" t="s">
+    </row>
+    <row r="4" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C11" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G14" s="5"/>
     </row>
   </sheetData>
